--- a/Assets/Resources/Data/Equip/EquipDescription.xlsx
+++ b/Assets/Resources/Data/Equip/EquipDescription.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knemo\Desktop\GitHub\HeadingWithWings\Assets\Resources\Data\Equip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09E2268-27CB-42C0-921E-F8773837487B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F359B8-B729-4902-986D-1A3D51391602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="4350" windowWidth="25155" windowHeight="11385" xr2:uid="{B9C9A948-6D4E-4E21-892F-EB75E4F5CF85}"/>
+    <workbookView xWindow="27885" yWindow="1080" windowWidth="25155" windowHeight="11385" xr2:uid="{B9C9A948-6D4E-4E21-892F-EB75E4F5CF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -281,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>턱걸이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>황금하트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -956,6 +952,10 @@
   </si>
   <si>
     <t>850&lt;color=green&gt;-50&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1329,8 +1329,8 @@
   <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1373,28 +1373,28 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>1</v>
@@ -1414,43 +1414,43 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2" s="2">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1464,43 +1464,43 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" s="2">
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1514,43 +1514,43 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" s="2">
         <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1564,43 +1564,43 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="2">
         <v>8</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1614,43 +1614,43 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F6" s="2">
         <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1664,43 +1664,43 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F7" s="2">
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1714,43 +1714,43 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="2">
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1764,43 +1764,43 @@
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F9" s="2">
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1814,43 +1814,43 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F10" s="2">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1864,43 +1864,43 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F11" s="2">
         <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1914,37 +1914,37 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F12" s="2">
         <v>16</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>30</v>
@@ -1964,37 +1964,37 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F13" s="2">
         <v>16</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>30</v>
@@ -2014,37 +2014,37 @@
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="2">
         <v>16</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>30</v>
@@ -2064,37 +2064,37 @@
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15" s="2">
         <v>16</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>30</v>
@@ -2114,37 +2114,37 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16" s="2">
         <v>16</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>29</v>
@@ -2164,37 +2164,37 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F17" s="2">
         <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>15</v>
@@ -2214,37 +2214,37 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F18" s="2">
         <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>15</v>
@@ -2264,37 +2264,37 @@
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F19" s="2">
         <v>11</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>15</v>
@@ -2314,37 +2314,37 @@
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F20" s="2">
         <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>15</v>
@@ -2364,37 +2364,37 @@
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F21" s="2">
         <v>11</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>28</v>
@@ -2414,43 +2414,43 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" s="2">
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2464,43 +2464,43 @@
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23" s="2">
         <v>3</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2514,43 +2514,43 @@
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F24" s="2">
         <v>3</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2564,43 +2564,43 @@
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F25" s="2">
         <v>3</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2614,43 +2614,43 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F26" s="2">
         <v>3</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2664,37 +2664,37 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>36</v>
@@ -2714,37 +2714,37 @@
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>36</v>
@@ -2764,37 +2764,37 @@
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>36</v>
@@ -2814,37 +2814,37 @@
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F30" s="2">
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>36</v>
@@ -2864,37 +2864,37 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>21</v>
@@ -2914,37 +2914,37 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F32" s="2">
         <v>2</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>42</v>
@@ -2964,37 +2964,37 @@
         <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F33" s="2">
         <v>2</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>42</v>
@@ -3014,37 +3014,37 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F34" s="2">
         <v>2</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>42</v>
@@ -3064,37 +3064,37 @@
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F35" s="2">
         <v>2</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>42</v>
@@ -3114,43 +3114,43 @@
         <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F36" s="2">
         <v>2</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -3164,37 +3164,37 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F37" s="2">
         <v>5</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>48</v>
@@ -3214,43 +3214,43 @@
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F38" s="2">
         <v>5</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -3264,37 +3264,37 @@
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F39" s="2">
         <v>5</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>48</v>
@@ -3314,37 +3314,37 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F40" s="2">
         <v>5</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>48</v>
@@ -3364,43 +3364,43 @@
         <v>5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F41" s="2">
         <v>5</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -3408,49 +3408,49 @@
         <v>20101</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F42" s="2">
         <v>-1</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -3458,49 +3458,49 @@
         <v>20102</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" s="2">
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F43" s="2">
         <v>-1</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -3508,49 +3508,49 @@
         <v>20103</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" s="2">
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F44" s="2">
         <v>-1</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -3558,49 +3558,49 @@
         <v>20104</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="2">
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F45" s="2">
         <v>-1</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -3608,49 +3608,49 @@
         <v>20105</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" s="2">
         <v>5</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F46" s="2">
         <v>-1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -3664,43 +3664,43 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F47" s="2">
         <v>-1</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -3714,43 +3714,43 @@
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F48" s="2">
         <v>-1</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -3764,43 +3764,43 @@
         <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F49" s="2">
         <v>-1</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -3814,43 +3814,43 @@
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F50" s="2">
         <v>-1</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -3864,43 +3864,43 @@
         <v>5</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F51" s="2">
         <v>-1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -3914,43 +3914,43 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F52" s="2">
         <v>-1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3964,43 +3964,43 @@
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F53" s="2">
         <v>-1</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -4014,43 +4014,43 @@
         <v>3</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F54" s="2">
         <v>-1</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -4064,43 +4064,43 @@
         <v>4</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F55" s="2">
         <v>-1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -4114,43 +4114,43 @@
         <v>5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F56" s="2">
         <v>-1</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -4164,43 +4164,43 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="F57" s="2">
         <v>-1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -4214,43 +4214,43 @@
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F58" s="2">
         <v>-1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -4264,43 +4264,43 @@
         <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F59" s="2">
         <v>-1</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -4314,43 +4314,43 @@
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F60" s="2">
         <v>-1</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -4364,43 +4364,43 @@
         <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F61" s="2">
         <v>-1</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -4414,43 +4414,43 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2">
         <v>-1</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -4464,43 +4464,43 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2">
         <v>-1</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -4514,43 +4514,43 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2">
         <v>-1</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -4564,43 +4564,43 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2">
         <v>-1</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -4614,43 +4614,43 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F66" s="2">
         <v>-1</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -4658,49 +4658,49 @@
         <v>30601</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F67" s="2">
         <v>-1</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -4708,49 +4708,49 @@
         <v>30701</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2">
         <v>-1</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4758,49 +4758,49 @@
         <v>30801</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2">
         <v>-1</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -4808,49 +4808,49 @@
         <v>30901</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2">
         <v>-1</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -4858,49 +4858,49 @@
         <v>31001</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2">
         <v>-1</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4908,49 +4908,49 @@
         <v>31101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F72" s="2">
         <v>-1</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -4958,49 +4958,49 @@
         <v>31201</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F73" s="2">
         <v>-1</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -5008,49 +5008,49 @@
         <v>31301</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F74" s="2">
         <v>-1</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Equip/EquipDescription.xlsx
+++ b/Assets/Resources/Data/Equip/EquipDescription.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knemo\Desktop\GitHub\HeadingWithWings\Assets\Resources\Data\Equip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F359B8-B729-4902-986D-1A3D51391602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19DA174-19CB-4011-AD74-976452ABA786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27885" yWindow="1080" windowWidth="25155" windowHeight="11385" xr2:uid="{B9C9A948-6D4E-4E21-892F-EB75E4F5CF85}"/>
+    <workbookView xWindow="44640" yWindow="5970" windowWidth="25155" windowHeight="11385" xr2:uid="{B9C9A948-6D4E-4E21-892F-EB75E4F5CF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="236">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최대체력 &lt;color=green&gt;+5%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전방에 블랙홀을 생성해 적들을 묶어둔다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -590,33 +586,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;color=green&gt;-10%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>최대체력 &lt;color=red&gt;-5%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=green&gt;-10%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대체력 &lt;color=red&gt;-5%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복 아이템 드랍률 &lt;color=green&gt;+5%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=green&gt;+15%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=green&gt;+10%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>체력 회복량 &lt;color=green&gt;+5%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=green&gt;+5%&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -624,10 +598,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=green&gt;-5%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -835,18 +805,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;color=green&gt;+5%&lt;/color&gt; </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;color=green&gt;-8%&lt;/color&gt; </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;color=red&gt;-10%&lt;/color&gt; </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2&lt;color=green&gt;+0.5&lt;/color&gt;초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -956,6 +914,58 @@
   </si>
   <si>
     <t>운동화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;color=green&gt;+30%&lt;/color&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=green&gt;+50%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대체력 &lt;color=green&gt;+30%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=green&gt;+80%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=green&gt;+35%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;color=green&gt;-3%&lt;/color&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;color=red&gt;-8%&lt;/color&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대체력 &lt;color=green&gt;+100%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=green&gt;+30%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=green&gt;-20%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대체력 &lt;color=red&gt;-3%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복 아이템 드랍률 &lt;color=green&gt;+10%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복량 &lt;color=green&gt;+50%&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1328,9 +1338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF6837C-3A06-4C5E-9DB0-A79A6724B931}">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1373,28 +1383,28 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>1</v>
@@ -1414,43 +1424,43 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F2" s="2">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1464,43 +1474,43 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" s="2">
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1514,43 +1524,43 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="2">
         <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1564,43 +1574,43 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F5" s="2">
         <v>8</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1614,43 +1624,43 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F6" s="2">
         <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1664,43 +1674,43 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F7" s="2">
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1714,43 +1724,43 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="F8" s="2">
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1764,43 +1774,43 @@
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F9" s="2">
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1814,43 +1824,43 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F10" s="2">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1864,43 +1874,43 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F11" s="2">
         <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1914,37 +1924,37 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F12" s="2">
         <v>16</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>30</v>
@@ -1964,37 +1974,37 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F13" s="2">
         <v>16</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>30</v>
@@ -2014,37 +2024,37 @@
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F14" s="2">
         <v>16</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>30</v>
@@ -2064,37 +2074,37 @@
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" s="2">
         <v>16</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>30</v>
@@ -2114,37 +2124,37 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" s="2">
         <v>16</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>29</v>
@@ -2164,37 +2174,37 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F17" s="2">
         <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>15</v>
@@ -2214,37 +2224,37 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F18" s="2">
         <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>15</v>
@@ -2264,37 +2274,37 @@
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F19" s="2">
         <v>11</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>15</v>
@@ -2314,37 +2324,37 @@
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F20" s="2">
         <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>15</v>
@@ -2364,37 +2374,37 @@
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F21" s="2">
         <v>11</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>28</v>
@@ -2414,43 +2424,43 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F22" s="2">
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2464,43 +2474,43 @@
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F23" s="2">
         <v>3</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2514,43 +2524,43 @@
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F24" s="2">
         <v>3</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2564,43 +2574,43 @@
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F25" s="2">
         <v>3</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2614,43 +2624,43 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F26" s="2">
         <v>3</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2664,37 +2674,37 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>36</v>
@@ -2714,37 +2724,37 @@
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>36</v>
@@ -2764,37 +2774,37 @@
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>36</v>
@@ -2814,37 +2824,37 @@
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F30" s="2">
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>36</v>
@@ -2864,37 +2874,37 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>21</v>
@@ -2914,37 +2924,37 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F32" s="2">
         <v>2</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>42</v>
@@ -2964,37 +2974,37 @@
         <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F33" s="2">
         <v>2</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>42</v>
@@ -3014,37 +3024,37 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F34" s="2">
         <v>2</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>42</v>
@@ -3064,37 +3074,37 @@
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F35" s="2">
         <v>2</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>42</v>
@@ -3114,43 +3124,43 @@
         <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F36" s="2">
         <v>2</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -3164,37 +3174,37 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F37" s="2">
         <v>5</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>48</v>
@@ -3214,43 +3224,43 @@
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F38" s="2">
         <v>5</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -3264,37 +3274,37 @@
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F39" s="2">
         <v>5</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>48</v>
@@ -3314,37 +3324,37 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F40" s="2">
         <v>5</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>48</v>
@@ -3364,43 +3374,43 @@
         <v>5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41" s="2">
         <v>5</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -3408,49 +3418,49 @@
         <v>20101</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F42" s="2">
         <v>-1</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -3458,49 +3468,49 @@
         <v>20102</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="2">
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F43" s="2">
         <v>-1</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -3508,49 +3518,49 @@
         <v>20103</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="2">
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F44" s="2">
         <v>-1</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -3558,49 +3568,49 @@
         <v>20104</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="2">
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F45" s="2">
         <v>-1</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -3608,49 +3618,49 @@
         <v>20105</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="2">
         <v>5</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F46" s="2">
         <v>-1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -3664,43 +3674,43 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F47" s="2">
         <v>-1</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -3714,43 +3724,43 @@
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F48" s="2">
         <v>-1</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -3764,43 +3774,43 @@
         <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F49" s="2">
         <v>-1</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -3814,43 +3824,43 @@
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F50" s="2">
         <v>-1</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -3864,43 +3874,43 @@
         <v>5</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F51" s="2">
         <v>-1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -3914,43 +3924,43 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F52" s="2">
         <v>-1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3964,43 +3974,43 @@
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F53" s="2">
         <v>-1</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -4014,43 +4024,43 @@
         <v>3</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F54" s="2">
         <v>-1</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -4064,43 +4074,43 @@
         <v>4</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F55" s="2">
         <v>-1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -4114,43 +4124,43 @@
         <v>5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F56" s="2">
         <v>-1</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -4164,43 +4174,43 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F57" s="2">
         <v>-1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -4214,43 +4224,43 @@
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F58" s="2">
         <v>-1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -4264,43 +4274,43 @@
         <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F59" s="2">
         <v>-1</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -4314,43 +4324,43 @@
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F60" s="2">
         <v>-1</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -4364,43 +4374,43 @@
         <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F61" s="2">
         <v>-1</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -4414,43 +4424,43 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2">
         <v>-1</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -4464,43 +4474,43 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2">
         <v>-1</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -4514,43 +4524,43 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2">
         <v>-1</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -4564,43 +4574,43 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2">
         <v>-1</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -4614,43 +4624,43 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F66" s="2">
         <v>-1</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -4658,49 +4668,49 @@
         <v>30601</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F67" s="2">
         <v>-1</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -4714,43 +4724,43 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2">
         <v>-1</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4764,43 +4774,43 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2">
         <v>-1</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -4814,43 +4824,43 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2">
         <v>-1</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -4864,43 +4874,43 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>232</v>
       </c>
       <c r="F71" s="2">
         <v>-1</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>139</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4914,43 +4924,43 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F72" s="2">
         <v>-1</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -4964,43 +4974,43 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F73" s="2">
         <v>-1</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -5014,43 +5024,43 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F74" s="2">
         <v>-1</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Equip/EquipDescription.xlsx
+++ b/Assets/Resources/Data/Equip/EquipDescription.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knemo\Desktop\GitHub\HeadingWithWings\Assets\Resources\Data\Equip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19DA174-19CB-4011-AD74-976452ABA786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE57BCF-4C92-4315-B065-D705C2460CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44640" yWindow="5970" windowWidth="25155" windowHeight="11385" xr2:uid="{B9C9A948-6D4E-4E21-892F-EB75E4F5CF85}"/>
+    <workbookView xWindow="-16200" yWindow="4710" windowWidth="25155" windowHeight="11385" xr2:uid="{B9C9A948-6D4E-4E21-892F-EB75E4F5CF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,20 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="282">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깃털</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,14 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철벽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,26 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>깃털 하나를 발사해 적을 공격한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4발의 펠릿을 발사하는 샷건으로 적을 공격한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lv.5 달성 시 펠릿 개수 2배.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고드름을 발사해 적을 둔화시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정신을 집중해 적에게 플라즈마 공격을 가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>equipID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,22 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lv.5 관통 공격으로 전환.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lv.5 스플래쉬 범위 2배.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lv.5 후방에도 벽을 배치.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extraDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>둔화율 10% / 둔화 시간 2초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,42 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lv.5 적을 완전히 빙결.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lv.5 헤드샷 확률이 크게 상승.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강력한 공격력으로 멀리 있는 적을 저격한다. 낮은 확률로 헤드샷을 발사한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤드샷 데미지 x2 / 헤드샷 확률 1%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤드샷 데미지 x2.1 / 헤드샷 확률 1&lt;color=green&gt;+1%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤드샷 데미지 x2.2 / 헤드샷 확률 2&lt;color=green&gt;+1%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤드샷 데미지 x2.3 / 헤드샷 확률 3&lt;color=green&gt;+1%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤드샷 데미지 x2.5 / 헤드샷 확률 &lt;color=green&gt;10%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">벽을 세워 투사체를 막고 강하게 적을 밀어내어 공격한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어 및 충돌 횟수 : 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,14 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어를 공전하는 위성을 소환한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lv.5 위성!위성!위성!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위성 개수 : 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>강력한 메테오를 소환해 주변을 공격한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메테오 개수 : 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,22 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전방에 블랙홀을 생성해 적들을 묶어둔다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전방으로 빠르게 질주해 부딪힌 모든 적에게 피해를 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전후방을 긁어 체력을 흡수한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전방으로 강한 집중포화를 발사한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>블랙홀 수명 5초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,15 +486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5발의 펠릿을 발사하는 샷건으로 적을 공격한다.</t>
-  </si>
-  <si>
-    <t>6발의 펠릿을 발사하는 샷건으로 적을 공격한다.</t>
-  </si>
-  <si>
-    <t>7발의 펠릿을 발사하는 샷건으로 적을 공격한다.</t>
-  </si>
-  <si>
     <t>4&lt;color=green&gt;+1&lt;/color&gt;개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -809,10 +684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lv.5 메테오가 떨어진 위치에 불장판 생성.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=green&gt;150%&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -966,6 +837,322 @@
   </si>
   <si>
     <t>체력 회복량 &lt;color=green&gt;+50%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃털 날리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이트닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃털 1개 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃털 &lt;color=green&gt;2&lt;/color&gt;개 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃털 &lt;color=green&gt;3&lt;/color&gt;개 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃털 &lt;color=green&gt;4&lt;/color&gt;개 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4발의 펠릿을 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=yellow&gt;Lv.5 적을 완전히 빙결!&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 번개 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃털 &lt;color=green&gt;5&lt;/color&gt;개 발사\n&lt;color=yellow&gt;Lv.5 관통형 깃털!&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤드샷 데미지 x2\n헤드샷 확률 1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤드샷 데미지 x2.1\n헤드샷 확률 1&lt;color=green&gt;+1%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤드샷 데미지 x2.2\n헤드샷 확률 2&lt;color=green&gt;+1%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤드샷 데미지 x2.3\n헤드샷 확률 3&lt;color=green&gt;+1%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤드샷 데미지 x2.5\n헤드샷 확률 &lt;color=green&gt;10%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 가장 많은 적 저격\n&lt;color=yellow&gt;Lv.5 헤드샷 확률이 크게 상승!&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 가장 많은 적 저격\n낮은 확률로 헤드샷!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8발의 펠릿을 발사\n&lt;color=yellow&gt;Lv.5 펠릿 개수 2배&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체를 막아주는 방패\n적과 충돌시 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=yellow&gt;Lv.5 위성!위성!위성!&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공전하는 위성을 소환\n위성 개수 : 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공전하는 위성을 소환\n위성 개수 : 1 &lt;color=green&gt;+1&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공전하는 위성을 소환\n위성 개수 : 2 &lt;color=green&gt;+1&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공전하는 위성을 소환\n위성 개수 : 3 &lt;color=green&gt;+1&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메테오로 주변을 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=yellow&gt;Lv.5 떨어진 위치에 불장판 생성!&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 강한 집중포화를 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전후방을 긁어 체력을 흡수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방에 블랙홀을 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 전광석화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고드름으로 적 둔화(범위)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 &lt;color=green&gt;+15%&lt;/color&gt;\n최대체력 &lt;color=green&gt;+15%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 &lt;color=green&gt;+25%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 &lt;color=green&gt;+25%&lt;/color&gt;\n이동속도 &lt;color=red&gt;-5%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격주기 &lt;color=green&gt;-5%&lt;/color&gt;\n이동속도 &lt;color=green&gt;+5%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도 &lt;color=green&gt;+5%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대체력 &lt;color=green&gt;+50%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격주기 &lt;color=green&gt;-5%&lt;/color&gt;\n최대체력 &lt;color=red&gt;-10%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 &lt;color=green&gt;+10%&lt;/color&gt;\n공격주기 &lt;color=green&gt;-5%&lt;/color&gt;\n최대체력 &lt;color=red&gt;-20%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 &lt;color=red&gt;-20%&lt;/color&gt;\n공격주기 &lt;color=green&gt;-30%&lt;/color&gt;\n이동속도 &lt;color=green&gt;+10%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물약 드랍률 &lt;color=green&gt;+10%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격주기 &lt;color=green&gt;-10%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 100% \n 공격주기의 60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 100&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 60&lt;color=red&gt;+10&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 100&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 70&lt;color=red&gt;+10&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 30% \n 공격주기의 150%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 100&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 80&lt;color=red&gt;+10&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 100&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 900&lt;color=red&gt;+10&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 30&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 150&lt;color=green&gt;-10&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 40&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 140&lt;color=green&gt;-10&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 50&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 130&lt;color=green&gt;-10&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 60&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 120&lt;color=green&gt;-20&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 60&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 150&lt;color=green&gt;-5&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 50% \n 공격주기의 150%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 70&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 145&lt;color=green&gt;-5&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 80&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 140&lt;color=green&gt;-5&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 90&lt;color=green&gt;+20&lt;/color&gt;%\n공격주기의 135&lt;color=green&gt;-5&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 화력 집중! 여길 탈출한다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 냠냠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙홀(영어: Black hole)은 항성이 진화의 최종단계에서 폭발후 수축되어 생성된 것으로 추측되는, 강력한 밀도와 중력으로 입자나 전자기 복사, 빛을 포함한 그 무엇도 빠져나올 수 없는 시공간 영역이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠자리 푸더더덕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃털을 꼼꼼히 추가하여 더 빠르게 행동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단단한 깃털을 추가해 공격력과 체력을 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인클라인 덤벨프레스 30kg 10reps.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIGHT WEIGHT BABY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 간단하고 지루한 유산소 운동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">새 신을 신고 뛰어보자 폴 짝 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냠냠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can you feel my heart beat?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자~ 어디보자~ 어디~~볼까요~~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거북목을 조심합시다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 저는 커피를 좋아하진 않아요.\n근데 이제는 먹지 않으면\n버틸수가 없네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키야 이 집 물 잘하네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삐용삐용 스프라이트가 얘만 다른거 같은데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=yellow&gt;Lv.5 후방에도 방패 배치!&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=yellow&gt;Lv.5 스플래쉬 범위 2배!&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1338,9 +1525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF6837C-3A06-4C5E-9DB0-A79A6724B931}">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M69" sqref="M69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1348,69 +1535,69 @@
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="72.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="82.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="112.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="35.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1418,49 +1605,49 @@
         <v>10101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" s="2">
+        <v>248</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="2">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1468,49 +1655,49 @@
         <v>10102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="2">
+        <v>249</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1518,49 +1705,49 @@
         <v>10103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="2">
+        <v>250</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="2">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1568,49 +1755,49 @@
         <v>10104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" s="2">
+        <v>252</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="2">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1618,49 +1805,49 @@
         <v>10105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F6" s="2">
+        <v>253</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="2">
         <v>8</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1668,49 +1855,49 @@
         <v>10201</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="2">
+        <v>251</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="2">
         <v>4</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1718,49 +1905,49 @@
         <v>10202</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" s="2">
+        <v>254</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1768,49 +1955,49 @@
         <v>10203</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F9" s="2">
+        <v>255</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="2">
         <v>4</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1818,49 +2005,49 @@
         <v>10204</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" s="2">
+        <v>256</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="2">
         <v>4</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1868,49 +2055,49 @@
         <v>10205</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" s="2">
+        <v>257</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="2">
         <v>4</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1918,49 +2105,49 @@
         <v>10301</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" s="2">
+        <v>216</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="2">
         <v>16</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1968,49 +2155,49 @@
         <v>10302</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F13" s="2">
+        <v>217</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="2">
         <v>16</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>191</v>
+        <v>56</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -2018,49 +2205,49 @@
         <v>10303</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="2">
+        <v>218</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="2">
         <v>16</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I14" s="2" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -2068,49 +2255,49 @@
         <v>10304</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="2">
+        <v>219</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="2">
         <v>16</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -2118,49 +2305,49 @@
         <v>10305</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="2">
+        <v>220</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="2">
         <v>16</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -2168,49 +2355,49 @@
         <v>10401</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" s="2">
         <v>11</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -2218,49 +2405,49 @@
         <v>10402</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F18" s="2">
         <v>11</v>
       </c>
+      <c r="F18" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>85</v>
+        <v>174</v>
+      </c>
+      <c r="H18" s="2">
+        <v>11</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -2268,49 +2455,49 @@
         <v>10403</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F19" s="2">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H19" s="2">
         <v>11</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I19" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -2318,49 +2505,49 @@
         <v>10404</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F20" s="2">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="2">
         <v>11</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2368,49 +2555,49 @@
         <v>10405</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F21" s="2">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="2">
         <v>11</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -2418,49 +2605,49 @@
         <v>10501</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="2">
+        <v>259</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="2">
         <v>3</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2468,49 +2655,49 @@
         <v>10502</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="2">
+        <v>258</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="2">
         <v>3</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I23" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2518,49 +2705,49 @@
         <v>10503</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>214</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="2">
+        <v>260</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="2">
         <v>3</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2568,49 +2755,49 @@
         <v>10504</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F25" s="2">
+        <v>261</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I25" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2618,49 +2805,49 @@
         <v>10505</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>90</v>
+        <v>281</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F26" s="2">
+        <v>262</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="2">
         <v>3</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2668,49 +2855,49 @@
         <v>10601</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F27" s="2">
+        <v>15</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H27" s="2">
         <v>0</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2718,49 +2905,49 @@
         <v>10602</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F28" s="2">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28" s="2">
         <v>0</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2768,49 +2955,49 @@
         <v>10603</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F29" s="2">
+        <v>17</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H29" s="2">
         <v>0</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2818,49 +3005,49 @@
         <v>10604</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="C30" s="2">
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F30" s="2">
+        <v>18</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H30" s="2">
         <v>0</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I30" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2868,49 +3055,49 @@
         <v>10605</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="C31" s="2">
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="2">
+        <v>19</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="2">
         <v>0</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I31" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2918,49 +3105,49 @@
         <v>10701</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F32" s="2">
+        <v>20</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" s="2">
         <v>2</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I32" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2968,49 +3155,49 @@
         <v>10702</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F33" s="2">
+        <v>21</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33" s="2">
         <v>2</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I33" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -3018,49 +3205,49 @@
         <v>10703</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F34" s="2">
+        <v>22</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34" s="2">
         <v>2</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I34" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -3068,49 +3255,49 @@
         <v>10704</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2">
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F35" s="2">
+        <v>23</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H35" s="2">
         <v>2</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I35" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -3118,49 +3305,49 @@
         <v>10705</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C36" s="2">
         <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="2">
+        <v>140</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="2">
         <v>2</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I36" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -3168,49 +3355,49 @@
         <v>10801</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F37" s="2">
+        <v>24</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H37" s="2">
         <v>5</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="I37" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -3218,49 +3405,49 @@
         <v>10802</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C38" s="2">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>108</v>
+        <v>230</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F38" s="2">
+        <v>144</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H38" s="2">
         <v>5</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="I38" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -3268,49 +3455,49 @@
         <v>10803</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2">
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F39" s="2">
+        <v>25</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H39" s="2">
         <v>5</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="I39" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -3318,49 +3505,49 @@
         <v>10804</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C40" s="2">
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F40" s="2">
+        <v>26</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="2">
         <v>5</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="I40" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -3368,49 +3555,49 @@
         <v>10805</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2">
         <v>5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" s="2">
+        <v>145</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="2">
         <v>5</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="I41" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>177</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -3418,49 +3605,49 @@
         <v>20101</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" s="2">
+        <v>263</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H42" s="2">
         <v>-1</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I42" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -3468,49 +3655,49 @@
         <v>20102</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2">
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>110</v>
+        <v>232</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" s="2">
+        <v>263</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" s="2">
         <v>-1</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I43" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -3518,49 +3705,49 @@
         <v>20103</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2">
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>232</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F44" s="2">
+        <v>263</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H44" s="2">
         <v>-1</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I44" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -3568,49 +3755,49 @@
         <v>20104</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2">
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>111</v>
+        <v>232</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F45" s="2">
+        <v>263</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H45" s="2">
         <v>-1</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I45" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -3618,49 +3805,49 @@
         <v>20105</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2">
         <v>5</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="2">
+        <v>263</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" s="2">
         <v>-1</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I46" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -3668,49 +3855,49 @@
         <v>20201</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F47" s="2">
+        <v>264</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="2">
         <v>-1</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I47" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -3718,49 +3905,49 @@
         <v>20202</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C48" s="2">
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>113</v>
+        <v>233</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F48" s="2">
+        <v>264</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" s="2">
         <v>-1</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I48" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -3768,49 +3955,49 @@
         <v>20203</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C49" s="2">
         <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="2">
+        <v>264</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H49" s="2">
         <v>-1</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I49" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -3818,49 +4005,49 @@
         <v>20204</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C50" s="2">
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" s="2">
+        <v>264</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H50" s="2">
         <v>-1</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I50" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -3868,49 +4055,49 @@
         <v>20205</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C51" s="2">
         <v>5</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" s="2">
+        <v>264</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" s="2">
         <v>-1</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I51" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -3918,49 +4105,49 @@
         <v>20301</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F52" s="2">
+        <v>265</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" s="2">
         <v>-1</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I52" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3968,49 +4155,49 @@
         <v>20302</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C53" s="2">
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F53" s="2">
+        <v>265</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H53" s="2">
         <v>-1</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I53" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -4018,49 +4205,49 @@
         <v>20303</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C54" s="2">
         <v>3</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F54" s="2">
+        <v>265</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H54" s="2">
         <v>-1</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I54" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -4068,49 +4255,49 @@
         <v>20304</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C55" s="2">
         <v>4</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" s="2">
+        <v>265</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H55" s="2">
         <v>-1</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I55" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -4118,49 +4305,49 @@
         <v>20305</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C56" s="2">
         <v>5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F56" s="2">
+        <v>265</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H56" s="2">
         <v>-1</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I56" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -4168,49 +4355,49 @@
         <v>20401</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F57" s="2">
+        <v>266</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H57" s="2">
         <v>-1</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I57" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -4218,49 +4405,49 @@
         <v>20402</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C58" s="2">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F58" s="2">
+        <v>266</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58" s="2">
         <v>-1</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I58" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -4268,49 +4455,49 @@
         <v>20403</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C59" s="2">
         <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F59" s="2">
+        <v>266</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H59" s="2">
         <v>-1</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I59" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -4318,49 +4505,49 @@
         <v>20404</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C60" s="2">
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F60" s="2">
+        <v>266</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H60" s="2">
         <v>-1</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I60" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -4368,49 +4555,49 @@
         <v>20405</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C61" s="2">
         <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F61" s="2">
+        <v>266</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H61" s="2">
         <v>-1</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I61" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -4418,49 +4605,49 @@
         <v>30101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F62" s="2">
+        <v>267</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H62" s="2">
         <v>-1</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I62" s="2" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -4468,49 +4655,49 @@
         <v>30201</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F63" s="2">
+        <v>268</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" s="2">
         <v>-1</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I63" s="2" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>225</v>
+        <v>56</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -4518,49 +4705,49 @@
         <v>30301</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F64" s="2">
+        <v>269</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H64" s="2">
         <v>-1</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I64" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -4568,49 +4755,49 @@
         <v>30401</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F65" s="2">
+        <v>270</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H65" s="2">
         <v>-1</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I65" s="2" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -4618,49 +4805,49 @@
         <v>30501</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>247</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F66" s="2">
+        <v>271</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H66" s="2">
         <v>-1</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I66" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -4668,49 +4855,49 @@
         <v>30601</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F67" s="2">
+        <v>272</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H67" s="2">
         <v>-1</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I67" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -4718,49 +4905,49 @@
         <v>30701</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F68" s="2">
+        <v>273</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H68" s="2">
         <v>-1</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I68" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4768,49 +4955,49 @@
         <v>30801</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F69" s="2">
+        <v>274</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H69" s="2">
         <v>-1</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I69" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>235</v>
+        <v>56</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -4818,49 +5005,49 @@
         <v>30901</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F70" s="2">
+        <v>275</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H70" s="2">
         <v>-1</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I70" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -4868,49 +5055,49 @@
         <v>31001</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F71" s="2">
+        <v>276</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H71" s="2">
         <v>-1</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I71" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4918,49 +5105,49 @@
         <v>31101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F72" s="2">
+        <v>277</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H72" s="2">
         <v>-1</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I72" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>233</v>
+        <v>56</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -4968,49 +5155,49 @@
         <v>31201</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F73" s="2">
+        <v>278</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H73" s="2">
         <v>-1</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I73" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -5018,49 +5205,49 @@
         <v>31301</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F74" s="2">
+        <v>279</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H74" s="2">
         <v>-1</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I74" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>234</v>
+        <v>56</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Equip/EquipDescription.xlsx
+++ b/Assets/Resources/Data/Equip/EquipDescription.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knemo\Desktop\GitHub\HeadingWithWings\Assets\Resources\Data\Equip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE57BCF-4C92-4315-B065-D705C2460CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215896CC-AF0F-4E4D-A021-BD2B0D81B787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="4710" windowWidth="25155" windowHeight="11385" xr2:uid="{B9C9A948-6D4E-4E21-892F-EB75E4F5CF85}"/>
+    <workbookView xWindow="2970" yWindow="3105" windowWidth="25155" windowHeight="11385" xr2:uid="{B9C9A948-6D4E-4E21-892F-EB75E4F5CF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="283">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -996,10 +996,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최대체력 &lt;color=green&gt;+50%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격주기 &lt;color=green&gt;-5%&lt;/color&gt;\n최대체력 &lt;color=red&gt;-10%&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1012,10 +1008,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>물약 드랍률 &lt;color=green&gt;+10%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격주기 &lt;color=green&gt;-10%&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1153,6 +1145,18 @@
   </si>
   <si>
     <t>&lt;color=yellow&gt;Lv.5 스플래쉬 범위 2배!&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대체력 &lt;color=green&gt;+10%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물약 드랍률 &lt;color=green&gt;+3%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복량 &lt;color=green&gt;+10%&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1526,8 +1530,8 @@
   <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1614,7 +1618,7 @@
         <v>208</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>118</v>
@@ -1664,7 +1668,7 @@
         <v>209</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>58</v>
@@ -1714,7 +1718,7 @@
         <v>210</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>59</v>
@@ -1764,7 +1768,7 @@
         <v>211</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>60</v>
@@ -1814,7 +1818,7 @@
         <v>215</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>61</v>
@@ -1864,7 +1868,7 @@
         <v>212</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>119</v>
@@ -1914,7 +1918,7 @@
         <v>212</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>63</v>
@@ -1964,7 +1968,7 @@
         <v>212</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>64</v>
@@ -2014,7 +2018,7 @@
         <v>212</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>65</v>
@@ -2064,7 +2068,7 @@
         <v>223</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>66</v>
@@ -2614,7 +2618,7 @@
         <v>214</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>118</v>
@@ -2664,7 +2668,7 @@
         <v>214</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>58</v>
@@ -2714,7 +2718,7 @@
         <v>214</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>59</v>
@@ -2764,7 +2768,7 @@
         <v>214</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>60</v>
@@ -2811,10 +2815,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>61</v>
@@ -3061,7 +3065,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>19</v>
@@ -3614,7 +3618,7 @@
         <v>232</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>119</v>
@@ -3664,7 +3668,7 @@
         <v>232</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>81</v>
@@ -3714,7 +3718,7 @@
         <v>232</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>63</v>
@@ -3764,7 +3768,7 @@
         <v>232</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>82</v>
@@ -3814,7 +3818,7 @@
         <v>232</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>83</v>
@@ -3864,7 +3868,7 @@
         <v>233</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>120</v>
@@ -3914,7 +3918,7 @@
         <v>233</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>84</v>
@@ -3964,7 +3968,7 @@
         <v>233</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>85</v>
@@ -4014,7 +4018,7 @@
         <v>233</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>67</v>
@@ -4064,7 +4068,7 @@
         <v>233</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>86</v>
@@ -4114,7 +4118,7 @@
         <v>234</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>56</v>
@@ -4164,7 +4168,7 @@
         <v>234</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>56</v>
@@ -4214,7 +4218,7 @@
         <v>234</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>56</v>
@@ -4264,7 +4268,7 @@
         <v>234</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>56</v>
@@ -4314,7 +4318,7 @@
         <v>234</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>56</v>
@@ -4364,7 +4368,7 @@
         <v>235</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>122</v>
@@ -4414,7 +4418,7 @@
         <v>235</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>104</v>
@@ -4464,7 +4468,7 @@
         <v>235</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>105</v>
@@ -4514,7 +4518,7 @@
         <v>235</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>106</v>
@@ -4564,7 +4568,7 @@
         <v>235</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>107</v>
@@ -4614,7 +4618,7 @@
         <v>240</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>56</v>
@@ -4664,7 +4668,7 @@
         <v>237</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>191</v>
@@ -4714,7 +4718,7 @@
         <v>238</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>194</v>
@@ -4764,7 +4768,7 @@
         <v>239</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>193</v>
@@ -4811,10 +4815,10 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>56</v>
@@ -4864,7 +4868,7 @@
         <v>241</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>194</v>
@@ -4911,10 +4915,10 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>56</v>
@@ -4961,10 +4965,10 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>56</v>
@@ -5011,10 +5015,10 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>198</v>
@@ -5061,10 +5065,10 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>191</v>
@@ -5111,10 +5115,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>56</v>
@@ -5164,7 +5168,7 @@
         <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>56</v>
@@ -5211,10 +5215,10 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>56</v>

--- a/Assets/Resources/Data/Equip/EquipDescription.xlsx
+++ b/Assets/Resources/Data/Equip/EquipDescription.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knemo\Desktop\GitHub\HeadingWithWings\Assets\Resources\Data\Equip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215896CC-AF0F-4E4D-A021-BD2B0D81B787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DD3B74-F4D2-4C58-A7B1-44141CF9EA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="3105" windowWidth="25155" windowHeight="11385" xr2:uid="{B9C9A948-6D4E-4E21-892F-EB75E4F5CF85}"/>
+    <workbookView xWindow="-12765" yWindow="3225" windowWidth="26505" windowHeight="18300" xr2:uid="{B9C9A948-6D4E-4E21-892F-EB75E4F5CF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="317">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,74 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>둔화율 10% / 둔화 시간 2초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>둔화율 10&lt;color=green&gt;+10&lt;/color&gt;% / 둔화 시간 2&lt;color=green&gt;+0.5&lt;/color&gt;초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>둔화율 20&lt;color=green&gt;+10&lt;/color&gt;% / 둔화 시간 2.5&lt;color=green&gt;+0.5&lt;/color&gt;초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>둔화율 30&lt;color=green&gt;+10&lt;/color&gt;% / 둔화 시간 3&lt;color=green&gt;+0.5&lt;/color&gt;초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>둔화율 40&lt;color=green&gt;+10&lt;/color&gt;% / 빙결 시간 3.5&lt;color=green&gt;+1.5&lt;/color&gt;초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어 및 충돌 횟수 : 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어 및 충돌 횟수 : 2&lt;color=green&gt;+2&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어 및 충돌 횟수 : 4&lt;color=green&gt;+2&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어 및 충돌 횟수 : 6&lt;color=green&gt;+2&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어 및 충돌 횟수 : 8&lt;color=green&gt;+2&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위성 개수 : 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위성 개수 : 1 &lt;color=green&gt;+1&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위성 개수 : 2 &lt;color=green&gt;+1&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위성 개수 : 3 &lt;color=green&gt;+1&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메테오 개수 : 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메테오 개수 : 4&lt;color=green&gt;+1&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메테오 개수 : 5&lt;color=green&gt;+1&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>equipName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,10 +520,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>위성 개수 : 4 &lt;color=green&gt;+1&lt;/color&gt; 위성 쿨타임을 제거한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4&lt;color=green&gt;+1&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -604,14 +532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메테오 개수 : 3&lt;color=green&gt;+1&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메테오 개수 : 6&lt;color=green&gt;+4&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3&lt;color=green&gt;+1&lt;/color&gt;개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -860,122 +780,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>깃털 1개 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깃털 &lt;color=green&gt;2&lt;/color&gt;개 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깃털 &lt;color=green&gt;3&lt;/color&gt;개 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깃털 &lt;color=green&gt;4&lt;/color&gt;개 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4발의 펠릿을 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=yellow&gt;Lv.5 적을 완전히 빙결!&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위 번개 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깃털 &lt;color=green&gt;5&lt;/color&gt;개 발사\n&lt;color=yellow&gt;Lv.5 관통형 깃털!&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤드샷 데미지 x2\n헤드샷 확률 1%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤드샷 데미지 x2.1\n헤드샷 확률 1&lt;color=green&gt;+1%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤드샷 데미지 x2.2\n헤드샷 확률 2&lt;color=green&gt;+1%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤드샷 데미지 x2.3\n헤드샷 확률 3&lt;color=green&gt;+1%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤드샷 데미지 x2.5\n헤드샷 확률 &lt;color=green&gt;10%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 가장 많은 적 저격\n&lt;color=yellow&gt;Lv.5 헤드샷 확률이 크게 상승!&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 가장 많은 적 저격\n낮은 확률로 헤드샷!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8발의 펠릿을 발사\n&lt;color=yellow&gt;Lv.5 펠릿 개수 2배&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체를 막아주는 방패\n적과 충돌시 데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=yellow&gt;Lv.5 위성!위성!위성!&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공전하는 위성을 소환\n위성 개수 : 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공전하는 위성을 소환\n위성 개수 : 1 &lt;color=green&gt;+1&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공전하는 위성을 소환\n위성 개수 : 2 &lt;color=green&gt;+1&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공전하는 위성을 소환\n위성 개수 : 3 &lt;color=green&gt;+1&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메테오로 주변을 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=yellow&gt;Lv.5 떨어진 위치에 불장판 생성!&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전방으로 강한 집중포화를 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전후방을 긁어 체력을 흡수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전방에 블랙홀을 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전방으로 전광석화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고드름으로 적 둔화(범위)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력 &lt;color=green&gt;+15%&lt;/color&gt;\n최대체력 &lt;color=green&gt;+15%&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1012,10 +816,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력의 100% \n 공격주기의 60%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력의 100&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 60&lt;color=red&gt;+10&lt;/color&gt;%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1024,10 +824,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력의 30% \n 공격주기의 150%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력의 100&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 80&lt;color=red&gt;+10&lt;/color&gt;%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1056,10 +852,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력의 50% \n 공격주기의 150%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력의 70&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 145&lt;color=green&gt;-5&lt;/color&gt;%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1068,26 +860,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력의 90&lt;color=green&gt;+20&lt;/color&gt;%\n공격주기의 135&lt;color=green&gt;-5&lt;/color&gt;%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전방으로 화력 집중! 여길 탈출한다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 냠냠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블랙홀(영어: Black hole)은 항성이 진화의 최종단계에서 폭발후 수축되어 생성된 것으로 추측되는, 강력한 밀도와 중력으로 입자나 전자기 복사, 빛을 포함한 그 무엇도 빠져나올 수 없는 시공간 영역이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠자리 푸더더덕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>깃털을 꼼꼼히 추가하여 더 빠르게 행동한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1112,10 +884,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>냠냠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Can you feel my heart beat?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1140,14 +908,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=yellow&gt;Lv.5 후방에도 방패 배치!&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=yellow&gt;Lv.5 스플래쉬 범위 2배!&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최대체력 &lt;color=green&gt;+10%&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1157,6 +917,382 @@
   </si>
   <si>
     <t>체력 회복량 &lt;color=green&gt;+10%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 90&lt;color=green&gt;+30&lt;/color&gt;%\n공격주기의 135&lt;color=green&gt;-5&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 500&lt;color=green&gt;+100&lt;/color&gt;%\n공격주기의 500&lt;color=green&gt;-50&lt;/color&gt;%\n헤드샷 데미지 x2.1\n헤드샷 확률 5&lt;color=green&gt;+2.5%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 600&lt;color=green&gt;+100&lt;/color&gt;%\n공격주기의 450&lt;color=green&gt;-50&lt;/color&gt;%\n헤드샷 데미지 x2.2\n헤드샷 확률 7.5&lt;color=green&gt;+2.5%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 700&lt;color=green&gt;+100&lt;/color&gt;%\n공격주기의 400&lt;color=green&gt;-50&lt;/color&gt;%\n헤드샷 데미지 x2.3\n헤드샷 확률 10&lt;color=green&gt;+5%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 800&lt;color=green&gt;+100&lt;/color&gt;%\n공격주기의 350&lt;color=green&gt;-50&lt;/color&gt;%\n헤드샷 데미지 x2.5\n헤드샷 확률 &lt;color=green&gt;30%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 60% \n공격주기의 150%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 10% \n공격주기의 330%\n둔화율 20%\n둔화 시간 2초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 500% \n공격주기의 500%\n헤드샷 데미지 x2\n헤드샷 확률 5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 30% \n공격주기의 150%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 100% \n공격주기의 60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 200% \n공격주기의 600%\n방어 및 충돌 횟수 : 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 200&lt;color=green&gt;+20&lt;/color&gt;%\n공격주기의 600&lt;color=green&gt;-50&lt;/color&gt;%\n방어 및 충돌 횟수 : 2&lt;color=green&gt;+2&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 220&lt;color=green&gt;+20&lt;/color&gt;%\n공격주기의 550&lt;color=green&gt;-50&lt;/color&gt;%\n방어 및 충돌 횟수 : 4&lt;color=green&gt;+2&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 240&lt;color=green&gt;+20&lt;/color&gt;%\n공격주기의 500&lt;color=green&gt;-50&lt;/color&gt;%\n방어 및 충돌 횟수 : 6&lt;color=green&gt;+2&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 260&lt;color=green&gt;+20&lt;/color&gt;%\n공격주기의 450&lt;color=green&gt;-50&lt;/color&gt;%\n방어 및 충돌 횟수 : 8&lt;color=green&gt;+2&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 100% \n공격주기의 600%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 100&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 600&lt;color=green&gt;-50&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 110&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 550&lt;color=green&gt;-50&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 120&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 500&lt;color=green&gt;-50&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃털 1개 발사\n공격력의 100% \n공격주기의 60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃털 &lt;color=green&gt;5&lt;/color&gt;개 발사\n공격력 &lt;color=green&gt;+10&lt;/color&gt;%\n공격주기 &lt;color=red&gt;+10&lt;/color&gt;%\n&lt;color=yellow&gt;Lv.5 관통형 깃털!&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=green&gt;8&lt;/color&gt;발의 펠릿을 발사!\n공격력 &lt;color=green&gt;+10&lt;/color&gt;%\n공격주기 &lt;color=green&gt;-20&lt;/color&gt;%\n&lt;color=yellow&gt;Lv.5 펠릿 개수 2배&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 가장 많은 적 저격\n낮은 확률로 헤드샷!\n공격력의 500% \n공격주기의 500%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 가장 많은 적 저격\n낮은 확률로 헤드샷!\n공격력 &lt;color=green&gt;+100&lt;/color&gt;%\n공격주기 &lt;color=green&gt;-50&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 가장 많은 적 저격\n공격력 &lt;color=green&gt;+100&lt;/color&gt;%\n공격주기 &lt;color=green&gt;-50&lt;/color&gt;%\n&lt;color=yellow&gt;Lv.5 헤드샷 확률이 크게 상승!&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고드름으로 적 둔화(범위)\n둔화율 20%\n둔화 시간 2초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고드름으로 적 둔화(범위)\n둔화율 &lt;color=green&gt;+20&lt;/color&gt;%\n둔화 시간 &lt;color=green&gt;+0.5&lt;/color&gt;초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 10&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 330&lt;color=green&gt;-30&lt;/color&gt;%\n둔화율 20&lt;color=green&gt;+20&lt;/color&gt;%\n둔화 시간 2&lt;color=green&gt;+0.5&lt;/color&gt;초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 20&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 300&lt;color=green&gt;-30&lt;/color&gt;%\n둔화율 40&lt;color=green&gt;+20&lt;/color&gt;%\n둔화 시간 2.5&lt;color=green&gt;+0.5&lt;/color&gt;초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 30&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 270&lt;color=green&gt;-30&lt;/color&gt;%\n둔화율 60&lt;color=green&gt;+20&lt;/color&gt;%\n둔화 시간 3&lt;color=green&gt;+0.5&lt;/color&gt;초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 40&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 240&lt;color=green&gt;-30&lt;/color&gt;%\n둔화율 &lt;color=green&gt;100&lt;/color&gt;%\n빙결 시간 3.5&lt;color=green&gt;+1.5&lt;/color&gt;초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고드름으로 적 둔화(범위)\n둔화율 &lt;color=green&gt;100&lt;/color&gt;%\n빙결 시간 &lt;color=green&gt;5&lt;/color&gt;초\n&lt;color=yellow&gt;Lv.5 적을 완전히 빙결!&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌릿찌릿 번쩍필살 범위공격!\n공격력의 60% \n공격주기의 150%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌릿찌릿 번쩍필살 범위공격!\n공격력 &lt;color=green&gt;+10&lt;/color&gt;%\n공격주기 &lt;color=green&gt;-5&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌릿찌릿 번쩍필살 범위공격!\n공격력 &lt;color=green&gt;+10&lt;/color&gt;%\n공격주기 &lt;color=green&gt;-5&lt;/color&gt;%\n&lt;color=yellow&gt;Lv.5 스플래쉬 범위 2배!&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체를 막아주는 방패\n적과 충돌시 데미지\n방어 및 충돌 횟수 : 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체를 막아주는 방패\n적과 충돌시 데미지\n방어 및 충돌 횟수 &lt;color=green&gt;+2&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체를 막아주는 방패\n적과 충돌시 데미지\n방어 및 충돌 횟수 &lt;color=green&gt;+2&lt;/color&gt;\n&lt;color=yellow&gt;Lv.5 후방에도 방패 배치!&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃털 &lt;color=green&gt;2&lt;/color&gt;개 발사\n공격력 &lt;color=green&gt;+10&lt;/color&gt;%\n공격주기 &lt;color=red&gt;+10&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃털 &lt;color=green&gt;3&lt;/color&gt;개 발사\n공격력 &lt;color=green&gt;+10&lt;/color&gt;%\n공격주기 &lt;color=red&gt;+10&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃털 &lt;color=green&gt;4&lt;/color&gt;개 발사\n공격력 &lt;color=green&gt;+10&lt;/color&gt;%\n공격주기 &lt;color=red&gt;+10&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4발의 펠릿을 발사\n공격력의 30% \n공격주기의 150%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4발의 펠릿을 발사\n공격력 &lt;color=green&gt;+10&lt;/color&gt;%\n공격주기 &lt;color=green&gt;-10&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공전하는 위성을 1개 소환\n공격력의 100% \n공격주기의 600%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공전하는 위성을 1&lt;color=green&gt;+1&lt;/color&gt;개 소환\n공격력 &lt;color=green&gt;+10&lt;/color&gt;%\n공격주기 &lt;color=green&gt;-50&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공전하는 위성을 2&lt;color=green&gt;+1&lt;/color&gt;개 소환\n공격력 &lt;color=green&gt;+10&lt;/color&gt;%\n공격주기 &lt;color=green&gt;-50&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공전하는 위성을 3&lt;color=green&gt;+1&lt;/color&gt;개 소환\n공격력 &lt;color=green&gt;+10&lt;/color&gt;%\n공격주기 &lt;color=green&gt;-50&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메테오 3개를 주변에 낙하\n공격력의 150%\n공격주기의 2500%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메테오 3&lt;color=green&gt;+1&lt;/color&gt;개를 주변에 낙하\n공격력 &lt;color=green&gt;+20&lt;/color&gt;%\n공격주기 &lt;color=green&gt;-100&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메테오 4&lt;color=green&gt;+1&lt;/color&gt;개를 주변에 낙하\n공격력 &lt;color=green&gt;+20&lt;/color&gt;%\n공격주기 &lt;color=green&gt;-100&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메테오 5&lt;color=green&gt;+1&lt;/color&gt;개를 주변에 낙하\n공격력 &lt;color=green&gt;+20&lt;/color&gt;%\n공격주기 &lt;color=green&gt;-100&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메테오 6&lt;color=green&gt;+4&lt;/color&gt;개를 주변에 낙하\n공격력 &lt;color=green&gt;+20&lt;/color&gt;%\n공격주기 &lt;color=green&gt;-200&lt;/color&gt;%\n&lt;color=yellow&gt;Lv.5 떨어진 위치에 불장판 생성!&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공전하는 위성을 4&lt;color=green&gt;+1&lt;/color&gt;개 소환\n공격력 &lt;color=green&gt;+10&lt;/color&gt;%\n&lt;color=yellow&gt;Lv.5 위성이 쉬질 않아요!!!&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 130&lt;color=green&gt;+10&lt;/color&gt;%\n&lt;color=green&gt;위성 재생성 쿨타임을 제거한다.&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 150% \n공격주기의 2500%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 150&lt;color=green&gt;+20&lt;/color&gt;%\n공격주기의 2500&lt;color=green&gt;-100&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 170&lt;color=green&gt;+20&lt;/color&gt;%\n공격주기의 2400&lt;color=green&gt;-100&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 210&lt;color=green&gt;+20&lt;/color&gt;%\n공격주기의 2200&lt;color=green&gt;-200&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 190&lt;color=green&gt;+20&lt;/color&gt;%\n공격주기의 2300&lt;color=green&gt;-100&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 집중포화!\n공격력의 50%\n스킬주기의 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 집중포화!\n공격력 &lt;color=green&gt;+10&lt;/color&gt;%\n스킬주기 &lt;color=green&gt;-10&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 집중포화!\n공격력 &lt;color=green&gt;+20&lt;/color&gt;%\n스킬주기 &lt;color=green&gt;-20&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 50%\n스킬주기의 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 50&lt;color=green&gt;+10&lt;/color&gt;%\n스킬주기의 100&lt;color=green&gt;-10&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 60&lt;color=green&gt;+10&lt;/color&gt;%\n스킬주기의 90&lt;color=green&gt;-10&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 70&lt;color=green&gt;+10&lt;/color&gt;%\n스킬주기의 80&lt;color=green&gt;-10&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 80&lt;color=green&gt;+20&lt;/color&gt;%\n스킬주기의 70&lt;color=green&gt;-20&lt;/color&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발버전에선 체력메타가 대세였던 적도 있었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전후방을 긁어 체력을 흡수\n공격력의 300%\n스킬주기의 200%\n흡혈량 가한 데미지의 0.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전후방을 긁어 체력을 흡수\n공격력 &lt;color=green&gt;+30&lt;/color&gt;%\n스킬주기 &lt;color=green&gt;-20&lt;/color&gt;%\n흡혈량 가한 데미지의 0.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전후방을 긁어 체력을 흡수\n공격력 &lt;color=green&gt;+40&lt;/color&gt;%\n스킬주기 &lt;color=green&gt;-20&lt;/color&gt;%\n흡혈량 가한 데미지의 0.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전후방을 긁어 체력을 흡수\n공격력 &lt;color=green&gt;+100&lt;/color&gt;%\n스킬주기 &lt;color=green&gt;-40&lt;/color&gt;%\n흡혈량 가한 데미지의 0.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방에 블랙홀을 생성\n공격력의 50%\n스킬주기의 200%\n블랙홀 시간 5초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방에 블랙홀을 생성\n공격력 &lt;color=green&gt;+10&lt;/color&gt;%\n스킬주기 &lt;color=green&gt;-20&lt;/color&gt;%\n블랙홀 시간 &lt;color=green&gt;+1&lt;/color&gt;초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방에 블랙홀을 생성\n공격력 &lt;color=green&gt;+10&lt;/color&gt;%\n스킬주기 &lt;color=green&gt;-20&lt;/color&gt;%\n블랙홀 시간 &lt;color=green&gt;+2&lt;/color&gt;초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방에 블랙홀을 생성\n공격력 &lt;color=green&gt;+10&lt;/color&gt;%\n스킬주기 &lt;color=green&gt;-20&lt;/color&gt;%\n블랙홀 시간 &lt;color=green&gt;+3&lt;/color&gt;초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방에 블랙홀을 생성\n공격력 &lt;color=green&gt;+20&lt;/color&gt;%\n스킬주기 &lt;color=green&gt;-40&lt;/color&gt;%\n블랙홀 시간 &lt;color=green&gt;+4&lt;/color&gt;초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 300%\n스킬주기의 200%\n흡혈량 가한 데미지의 0.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 300&lt;color=green&gt;+30&lt;/color&gt;%\n스킬주기의 200&lt;color=green&gt;-20&lt;/color&gt;%\n흡혈량 가한 데미지의 0.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 330&lt;color=green&gt;+30&lt;/color&gt;%\n스킬주기의 180&lt;color=green&gt;-20&lt;/color&gt;%\n흡혈량 가한 데미지의 0.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 360&lt;color=green&gt;+40&lt;/color&gt;%\n스킬주기의 160&lt;color=green&gt;-20&lt;/color&gt;%\n흡혈량 가한 데미지의 0.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 400&lt;color=green&gt;+100&lt;/color&gt;%\n스킬주기의 140&lt;color=green&gt;-40&lt;/color&gt;%\n흡혈량 가한 데미지의 0.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 50%\n스킬주기의 200%\n블랙홀 시간 5초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 50&lt;color=green&gt;+10&lt;/color&gt;%\n스킬주기의 200&lt;color=green&gt;-20&lt;/color&gt;%\n블랙홀 시간 5&lt;color=green&gt;+1&lt;/color&gt;초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 60&lt;color=green&gt;+10&lt;/color&gt;%\n스킬주기의 180&lt;color=green&gt;-20&lt;/color&gt;%\n블랙홀 시간 6&lt;color=green&gt;+2&lt;/color&gt;초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 70&lt;color=green&gt;+10&lt;/color&gt;%\n스킬주기의 160&lt;color=green&gt;-20&lt;/color&gt;%\n블랙홀 시간 8&lt;color=green&gt;+3&lt;/color&gt;초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 80&lt;color=green&gt;+20&lt;/color&gt;%\n스킬주기의 140&lt;color=green&gt;-40&lt;/color&gt;%\n블랙홀 시간 11&lt;color=green&gt;+4&lt;/color&gt;초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 전광석화\n공격력의 200%\n스킬주기의 50%\n스킬을 사용하는 동안 무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 전광석화\n공격력 &lt;color=green&gt;+100&lt;/color&gt;%\n스킬주기 &lt;color=green&gt;-5&lt;/color&gt;%\n스킬을 사용하는 동안 무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 200%\n스킬주기의 50%\n스킬을 사용하는 동안 무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 200&lt;color=green&gt;+100&lt;/color&gt;%\n스킬주기의 50&lt;color=green&gt;-5&lt;/color&gt;%\n스킬을 사용하는 동안 무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 300&lt;color=green&gt;+100&lt;/color&gt;%\n스킬주기의 45&lt;color=green&gt;-5&lt;/color&gt;%\n스킬을 사용하는 동안 무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 400&lt;color=green&gt;+100&lt;/color&gt;%\n스킬주기의 40&lt;color=green&gt;-5&lt;/color&gt;%\n스킬을 사용하는 동안 무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력의 500&lt;color=green&gt;+100&lt;/color&gt;%\n스킬주기의 35&lt;color=green&gt;-5&lt;/color&gt;%\n스킬을 사용하는 동안 무적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1529,9 +1665,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF6837C-3A06-4C5E-9DB0-A79A6724B931}">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1539,8 +1675,8 @@
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="112.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="179.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="188.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.375" style="2" customWidth="1"/>
@@ -1559,16 +1695,16 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1580,28 +1716,28 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1609,49 +1745,49 @@
         <v>10101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="H2" s="2">
         <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1659,49 +1795,49 @@
         <v>10102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="H3" s="2">
         <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1709,49 +1845,49 @@
         <v>10103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H4" s="2">
         <v>8</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1759,49 +1895,49 @@
         <v>10104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="H5" s="2">
         <v>8</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1809,49 +1945,49 @@
         <v>10105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H6" s="2">
         <v>8</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1865,43 +2001,43 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="H7" s="2">
         <v>4</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1915,43 +2051,43 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="H8" s="2">
         <v>4</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1965,43 +2101,43 @@
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -2015,43 +2151,43 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="H10" s="2">
         <v>4</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -2065,43 +2201,43 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="H11" s="2">
         <v>4</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -2115,43 +2251,43 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H12" s="2">
         <v>16</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -2165,43 +2301,43 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="H13" s="2">
         <v>16</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -2215,43 +2351,43 @@
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H14" s="2">
         <v>16</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -2265,43 +2401,43 @@
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="H15" s="2">
         <v>16</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -2315,43 +2451,43 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H16" s="2">
         <v>16</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -2365,43 +2501,43 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="H17" s="2">
         <v>11</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -2415,43 +2551,43 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="H18" s="2">
         <v>11</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -2465,43 +2601,43 @@
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="H19" s="2">
         <v>11</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -2515,43 +2651,43 @@
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H20" s="2">
         <v>11</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2565,43 +2701,43 @@
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="H21" s="2">
         <v>11</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -2609,49 +2745,49 @@
         <v>10501</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="H22" s="2">
         <v>3</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2659,49 +2795,49 @@
         <v>10502</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="H23" s="2">
         <v>3</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2709,49 +2845,49 @@
         <v>10503</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H24" s="2">
         <v>3</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2759,49 +2895,49 @@
         <v>10504</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="H25" s="2">
         <v>3</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2809,49 +2945,49 @@
         <v>10505</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="H26" s="2">
         <v>3</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2859,49 +2995,49 @@
         <v>10601</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2909,49 +3045,49 @@
         <v>10602</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2959,49 +3095,49 @@
         <v>10603</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -3009,49 +3145,49 @@
         <v>10604</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C30" s="2">
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -3059,49 +3195,49 @@
         <v>10605</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C31" s="2">
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -3115,43 +3251,43 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>20</v>
+        <v>238</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="H32" s="2">
         <v>2</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -3165,43 +3301,43 @@
         <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="H33" s="2">
         <v>2</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -3215,43 +3351,43 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="H34" s="2">
         <v>2</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -3265,43 +3401,43 @@
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="H35" s="2">
         <v>2</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -3315,43 +3451,43 @@
         <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>140</v>
+        <v>276</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H36" s="2">
         <v>2</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -3365,43 +3501,43 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="H37" s="2">
         <v>5</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -3415,43 +3551,43 @@
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>144</v>
+        <v>278</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="H38" s="2">
         <v>5</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -3465,43 +3601,43 @@
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>25</v>
+        <v>279</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="H39" s="2">
         <v>5</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -3515,43 +3651,43 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>26</v>
+        <v>281</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H40" s="2">
         <v>5</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -3565,43 +3701,43 @@
         <v>5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H41" s="2">
         <v>5</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -3609,49 +3745,49 @@
         <v>20101</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="H42" s="2">
         <v>-1</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -3659,49 +3795,49 @@
         <v>20102</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C43" s="2">
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H43" s="2">
         <v>-1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -3709,49 +3845,49 @@
         <v>20103</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C44" s="2">
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="H44" s="2">
         <v>-1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -3759,49 +3895,49 @@
         <v>20104</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C45" s="2">
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H45" s="2">
         <v>-1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -3809,49 +3945,49 @@
         <v>20105</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C46" s="2">
         <v>5</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="H46" s="2">
         <v>-1</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -3859,49 +3995,49 @@
         <v>20201</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="H47" s="2">
         <v>-1</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -3909,49 +4045,49 @@
         <v>20202</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C48" s="2">
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H48" s="2">
         <v>-1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -3959,49 +4095,49 @@
         <v>20203</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C49" s="2">
         <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="H49" s="2">
         <v>-1</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -4009,49 +4145,49 @@
         <v>20204</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C50" s="2">
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H50" s="2">
         <v>-1</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -4059,49 +4195,49 @@
         <v>20205</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C51" s="2">
         <v>5</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="H51" s="2">
         <v>-1</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -4109,49 +4245,49 @@
         <v>20301</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="H52" s="2">
         <v>-1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -4159,49 +4295,49 @@
         <v>20302</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C53" s="2">
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H53" s="2">
         <v>-1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -4209,49 +4345,49 @@
         <v>20303</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C54" s="2">
         <v>3</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="H54" s="2">
         <v>-1</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -4259,49 +4395,49 @@
         <v>20304</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C55" s="2">
         <v>4</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>234</v>
+        <v>298</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H55" s="2">
         <v>-1</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -4309,49 +4445,49 @@
         <v>20305</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C56" s="2">
         <v>5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="H56" s="2">
         <v>-1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -4359,49 +4495,49 @@
         <v>20401</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="H57" s="2">
         <v>-1</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -4409,49 +4545,49 @@
         <v>20402</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C58" s="2">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H58" s="2">
         <v>-1</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -4459,49 +4595,49 @@
         <v>20403</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C59" s="2">
         <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="H59" s="2">
         <v>-1</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -4509,49 +4645,49 @@
         <v>20404</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C60" s="2">
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="H60" s="2">
         <v>-1</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -4559,49 +4695,49 @@
         <v>20405</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C61" s="2">
         <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H61" s="2">
         <v>-1</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -4609,49 +4745,49 @@
         <v>30101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H62" s="2">
         <v>-1</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -4659,49 +4795,49 @@
         <v>30201</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H63" s="2">
         <v>-1</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -4709,49 +4845,49 @@
         <v>30301</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H64" s="2">
         <v>-1</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -4759,49 +4895,49 @@
         <v>30401</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H65" s="2">
         <v>-1</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -4809,49 +4945,49 @@
         <v>30501</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H66" s="2">
         <v>-1</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -4859,49 +4995,49 @@
         <v>30601</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="H67" s="2">
         <v>-1</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -4909,49 +5045,49 @@
         <v>30701</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H68" s="2">
         <v>-1</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4959,49 +5095,49 @@
         <v>30801</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H69" s="2">
         <v>-1</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -5009,49 +5145,49 @@
         <v>30901</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H70" s="2">
         <v>-1</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -5059,49 +5195,49 @@
         <v>31001</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="H71" s="2">
         <v>-1</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -5109,49 +5245,49 @@
         <v>31101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H72" s="2">
         <v>-1</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -5159,49 +5295,49 @@
         <v>31201</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>276</v>
+        <v>218</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H73" s="2">
         <v>-1</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -5209,49 +5345,49 @@
         <v>31301</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H74" s="2">
         <v>-1</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Equip/EquipDescription.xlsx
+++ b/Assets/Resources/Data/Equip/EquipDescription.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knemo\Desktop\GitHub\HeadingWithWings\Assets\Resources\Data\Equip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DD3B74-F4D2-4C58-A7B1-44141CF9EA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561915F8-C8F2-4CDB-B1A5-429CAB81DD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12765" yWindow="3225" windowWidth="26505" windowHeight="18300" xr2:uid="{B9C9A948-6D4E-4E21-892F-EB75E4F5CF85}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="26505" windowHeight="18300" xr2:uid="{B9C9A948-6D4E-4E21-892F-EB75E4F5CF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -784,38 +784,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력 &lt;color=green&gt;+25%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 &lt;color=green&gt;+25%&lt;/color&gt;\n이동속도 &lt;color=red&gt;-5%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격주기 &lt;color=green&gt;-5%&lt;/color&gt;\n이동속도 &lt;color=green&gt;+5%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도 &lt;color=green&gt;+5%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격주기 &lt;color=green&gt;-5%&lt;/color&gt;\n최대체력 &lt;color=red&gt;-10%&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력 &lt;color=green&gt;+10%&lt;/color&gt;\n공격주기 &lt;color=green&gt;-5%&lt;/color&gt;\n최대체력 &lt;color=red&gt;-20%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 &lt;color=red&gt;-20%&lt;/color&gt;\n공격주기 &lt;color=green&gt;-30%&lt;/color&gt;\n이동속도 &lt;color=green&gt;+10%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격주기 &lt;color=green&gt;-10%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력의 100&lt;color=green&gt;+10&lt;/color&gt;%\n공격주기의 60&lt;color=red&gt;+10&lt;/color&gt;%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1293,6 +1265,34 @@
   </si>
   <si>
     <t>공격력의 500&lt;color=green&gt;+100&lt;/color&gt;%\n스킬주기의 35&lt;color=green&gt;-5&lt;/color&gt;%\n스킬을 사용하는 동안 무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 &lt;color=green&gt;+8%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 &lt;color=green&gt;+12%&lt;/color&gt;\n이동속도 &lt;color=red&gt;-3%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격주기 &lt;color=green&gt;-3%&lt;/color&gt;\n이동속도 &lt;color=green&gt;+3%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격주기 &lt;color=green&gt;-5%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도 &lt;color=green&gt;+8%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 &lt;color=green&gt;+10%&lt;/color&gt;\n공격주기 &lt;color=green&gt;-3%&lt;/color&gt;\n최대체력 &lt;color=red&gt;-12%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 &lt;color=red&gt;-10%&lt;/color&gt;\n공격주기 &lt;color=green&gt;-5%&lt;/color&gt;\n이동속도 &lt;color=green&gt;+5%&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1665,9 +1665,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF6837C-3A06-4C5E-9DB0-A79A6724B931}">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1751,10 +1751,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>101</v>
@@ -1801,10 +1801,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>41</v>
@@ -1851,10 +1851,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>42</v>
@@ -1901,10 +1901,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>43</v>
@@ -1951,10 +1951,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>44</v>
@@ -2001,10 +2001,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>102</v>
@@ -2051,10 +2051,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>46</v>
@@ -2101,10 +2101,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>47</v>
@@ -2151,10 +2151,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>48</v>
@@ -2201,10 +2201,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>49</v>
@@ -2251,10 +2251,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>103</v>
@@ -2301,10 +2301,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>50</v>
@@ -2351,10 +2351,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>51</v>
@@ -2401,10 +2401,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>52</v>
@@ -2451,10 +2451,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>53</v>
@@ -2501,10 +2501,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>104</v>
@@ -2551,10 +2551,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>54</v>
@@ -2601,10 +2601,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>55</v>
@@ -2651,10 +2651,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>56</v>
@@ -2701,10 +2701,10 @@
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>57</v>
@@ -2751,10 +2751,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>101</v>
@@ -2801,10 +2801,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>41</v>
@@ -2851,10 +2851,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>42</v>
@@ -2901,10 +2901,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>43</v>
@@ -2951,10 +2951,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>44</v>
@@ -3001,10 +3001,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>105</v>
@@ -3051,10 +3051,10 @@
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>58</v>
@@ -3101,10 +3101,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>59</v>
@@ -3151,10 +3151,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>60</v>
@@ -3201,10 +3201,10 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>61</v>
@@ -3251,10 +3251,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>101</v>
@@ -3301,10 +3301,10 @@
         <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>41</v>
@@ -3351,10 +3351,10 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>42</v>
@@ -3401,10 +3401,10 @@
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>43</v>
@@ -3451,10 +3451,10 @@
         <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>62</v>
@@ -3501,10 +3501,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>144</v>
@@ -3551,10 +3551,10 @@
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>62</v>
@@ -3601,10 +3601,10 @@
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>163</v>
@@ -3651,10 +3651,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>164</v>
@@ -3701,10 +3701,10 @@
         <v>5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>165</v>
@@ -3751,10 +3751,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>102</v>
@@ -3801,10 +3801,10 @@
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>64</v>
@@ -3851,10 +3851,10 @@
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>46</v>
@@ -3901,10 +3901,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>65</v>
@@ -3951,10 +3951,10 @@
         <v>5</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>66</v>
@@ -4001,10 +4001,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>103</v>
@@ -4051,10 +4051,10 @@
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>67</v>
@@ -4101,10 +4101,10 @@
         <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>68</v>
@@ -4151,10 +4151,10 @@
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>50</v>
@@ -4201,10 +4201,10 @@
         <v>5</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>69</v>
@@ -4251,10 +4251,10 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>39</v>
@@ -4301,10 +4301,10 @@
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>39</v>
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>39</v>
@@ -4401,10 +4401,10 @@
         <v>4</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>39</v>
@@ -4451,10 +4451,10 @@
         <v>5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>39</v>
@@ -4501,10 +4501,10 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>105</v>
@@ -4551,10 +4551,10 @@
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>87</v>
@@ -4601,10 +4601,10 @@
         <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>88</v>
@@ -4651,10 +4651,10 @@
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>89</v>
@@ -4701,10 +4701,10 @@
         <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>90</v>
@@ -4751,10 +4751,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>191</v>
+        <v>312</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>39</v>
@@ -4804,7 +4804,7 @@
         <v>188</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>171</v>
@@ -4851,10 +4851,10 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>189</v>
+        <v>310</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>174</v>
@@ -4901,10 +4901,10 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>173</v>
@@ -4951,10 +4951,10 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>196</v>
+        <v>313</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>39</v>
@@ -5001,10 +5001,10 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>192</v>
+        <v>314</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>174</v>
@@ -5051,10 +5051,10 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>39</v>
@@ -5101,10 +5101,10 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>39</v>
@@ -5151,10 +5151,10 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>178</v>
@@ -5201,10 +5201,10 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>171</v>
@@ -5251,10 +5251,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>195</v>
+        <v>316</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>39</v>
@@ -5304,7 +5304,7 @@
         <v>91</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>39</v>
@@ -5351,10 +5351,10 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>39</v>
